--- a/resources/05 Pronouns.xlsx
+++ b/resources/05 Pronouns.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4F70C-7819-2C4C-8BAD-44DEA9C53151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="10380" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="definite-articles" sheetId="4" r:id="rId2"/>
+    <sheet name="possessive" sheetId="2" r:id="rId3"/>
+    <sheet name="personal" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="135">
   <si>
     <t>Pronoun</t>
   </si>
@@ -85,15 +100,370 @@
   </si>
   <si>
     <t>jemand</t>
+  </si>
+  <si>
+    <t>ich</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>sie</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>wir</t>
+  </si>
+  <si>
+    <t>ihr</t>
+  </si>
+  <si>
+    <t>mein</t>
+  </si>
+  <si>
+    <t>meine</t>
+  </si>
+  <si>
+    <t>dein</t>
+  </si>
+  <si>
+    <t>deine</t>
+  </si>
+  <si>
+    <t>sein</t>
+  </si>
+  <si>
+    <t>seine</t>
+  </si>
+  <si>
+    <t>ihre</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>unser</t>
+  </si>
+  <si>
+    <t>euer</t>
+  </si>
+  <si>
+    <t>unsere</t>
+  </si>
+  <si>
+    <t>eure</t>
+  </si>
+  <si>
+    <t>nominative</t>
+  </si>
+  <si>
+    <t>m/n</t>
+  </si>
+  <si>
+    <t>f/pl</t>
+  </si>
+  <si>
+    <t>accusative</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>deinen</t>
+  </si>
+  <si>
+    <t>seinen</t>
+  </si>
+  <si>
+    <t>ihren</t>
+  </si>
+  <si>
+    <t>unseren</t>
+  </si>
+  <si>
+    <t>euren</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dative</t>
+  </si>
+  <si>
+    <t>meinem</t>
+  </si>
+  <si>
+    <t>deinem</t>
+  </si>
+  <si>
+    <t>seinem</t>
+  </si>
+  <si>
+    <t>ihrem</t>
+  </si>
+  <si>
+    <t>unserem</t>
+  </si>
+  <si>
+    <t>eurem</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>meiner</t>
+  </si>
+  <si>
+    <t>deiner</t>
+  </si>
+  <si>
+    <t>seiner</t>
+  </si>
+  <si>
+    <t>ihrer</t>
+  </si>
+  <si>
+    <t>unserer</t>
+  </si>
+  <si>
+    <t>eurer</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>genitive</t>
+  </si>
+  <si>
+    <t>meines</t>
+  </si>
+  <si>
+    <t>deines</t>
+  </si>
+  <si>
+    <t>seines</t>
+  </si>
+  <si>
+    <t>ihres</t>
+  </si>
+  <si>
+    <t>unseres</t>
+  </si>
+  <si>
+    <t>eures</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>sie/Sie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its </t>
+  </si>
+  <si>
+    <t>your (plural)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ich </t>
+  </si>
+  <si>
+    <t>Singular</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>1st Person</t>
+  </si>
+  <si>
+    <t>2nd Person</t>
+  </si>
+  <si>
+    <t>3rd Person</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>usted</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ella </t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>nosotros</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>ustedes</t>
+  </si>
+  <si>
+    <t>Familiar</t>
+  </si>
+  <si>
+    <t>ellos</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>you all</t>
+  </si>
+  <si>
+    <t>Plural</t>
+  </si>
+  <si>
+    <t>Masculine</t>
+  </si>
+  <si>
+    <t>Feminine</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Nominative</t>
+  </si>
+  <si>
+    <t>Accusative</t>
+  </si>
+  <si>
+    <t>Dative</t>
+  </si>
+  <si>
+    <t>Genitive</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>masculine</t>
+  </si>
+  <si>
+    <t>feminine</t>
+  </si>
+  <si>
+    <t>neuter</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>to the</t>
+  </si>
+  <si>
+    <t>of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the </t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die </t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>des</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202020"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202020"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,14 +490,348 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,8 +844,42 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D087FF0F-1643-F24E-A789-7580D96C05CF}" name="Table13" displayName="Table13" ref="A1:F5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:F5" xr:uid="{9CF86E26-514D-144E-8499-3DB952E8B680}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1752C320-C7A2-AB4C-A765-949547BABC68}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{67F0F550-6CF5-EC43-8400-7CE8BE866B04}" name="masculine" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BDCA64BC-0620-AE45-88C1-14FC90D7B6D4}" name="feminine" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{38D3B85E-F932-144D-AFBF-FC939E604CFD}" name="neuter" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AFD3AC11-A538-6744-8E10-D594EF692BAD}" name="plural" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{403C6792-EACF-E941-8C55-67A4863AA088}" name="english" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D604B0AF-00FE-EF4F-9389-A795278EED57}" name="Table1" displayName="Table1" ref="A2:J12" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:J12" xr:uid="{FF0AB912-9252-464E-B9C3-B29834B0ECCC}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E02B47F1-433B-4D43-A024-9ECA46E58599}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{CBC47D62-3D71-4745-89BA-77B9C2448E38}" name="Gender" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{22251C27-AEBE-4D40-9628-769A25CFF1BB}" name="ich" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{93A00F01-2B22-0540-A95D-556B8E80A03A}" name="du" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{1E3131B1-9E38-E247-BAB1-2A9B2159AEFF}" name="er" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{BC189044-A5E1-1D44-B72C-5E5FCEC2B5E5}" name="sie" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{8D94C261-7389-6E4D-8333-34BEED8FE5CB}" name="es" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{C92F319E-88EB-D449-85EE-75171445CB1E}" name="wir" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{93A11A56-4C2A-444A-9245-3C891A44EE5B}" name="ihr" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{55E25602-5B14-C145-93DF-2C85CD1C5218}" name="sie/Sie" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -183,7 +921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +954,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +1006,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,22 +1198,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -455,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -466,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -480,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -491,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -502,32 +1274,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -535,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -553,25 +1325,771 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7F335-7C9C-AD49-A584-C8B746C4F96E}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="A18:C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/05 Pronouns.xlsx
+++ b/resources/05 Pronouns.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4F70C-7819-2C4C-8BAD-44DEA9C53151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32CE95-E427-FA4D-AA1D-317AE07B23AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="28360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="definite-articles" sheetId="4" r:id="rId2"/>
+    <sheet name="indefinite-articles" sheetId="5" r:id="rId2"/>
     <sheet name="possessive" sheetId="2" r:id="rId3"/>
-    <sheet name="personal" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="definite-articles" sheetId="4" r:id="rId5"/>
+    <sheet name="fuck" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="159">
   <si>
     <t>Pronoun</t>
   </si>
@@ -186,9 +189,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>meinen</t>
-  </si>
-  <si>
     <t>deinen</t>
   </si>
   <si>
@@ -210,9 +210,6 @@
     <t>dative</t>
   </si>
   <si>
-    <t>meinem</t>
-  </si>
-  <si>
     <t>deinem</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>genitive</t>
   </si>
   <si>
-    <t>meines</t>
-  </si>
-  <si>
     <t>deines</t>
   </si>
   <si>
@@ -436,13 +430,240 @@
   </si>
   <si>
     <t>des</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mein </t>
+  </si>
+  <si>
+    <t>first_person</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>einem</t>
+  </si>
+  <si>
+    <t>einer</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>einen</t>
+  </si>
+  <si>
+    <t>eine</t>
+  </si>
+  <si>
+    <t>ein</t>
+  </si>
+  <si>
+    <t>keine?</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <r>
+      <t>mein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>en</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>em</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>er</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mein</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+  </si>
+  <si>
+    <t>emeren</t>
+  </si>
+  <si>
+    <t>ene</t>
+  </si>
+  <si>
+    <t>een</t>
+  </si>
+  <si>
+    <t>Ich such meine Katze</t>
+  </si>
+  <si>
+    <t>singular</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ich suche </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Katze</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mein</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist groß und dort ist genug Platz für alle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +689,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF202020"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202020"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +748,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -703,6 +1017,258 @@
         <name val="Helvetica Neue"/>
         <family val="2"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF202020"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -845,34 +1411,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D087FF0F-1643-F24E-A789-7580D96C05CF}" name="Table13" displayName="Table13" ref="A1:F5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:F5" xr:uid="{9CF86E26-514D-144E-8499-3DB952E8B680}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{02937B9D-CFFF-9846-B405-76321B1511C4}" name="Table134" displayName="Table134" ref="A1:F5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:F5" xr:uid="{1A78CB65-9027-C145-B4C0-9252E84F1756}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1752C320-C7A2-AB4C-A765-949547BABC68}" name="Case"/>
-    <tableColumn id="2" xr3:uid="{67F0F550-6CF5-EC43-8400-7CE8BE866B04}" name="masculine" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BDCA64BC-0620-AE45-88C1-14FC90D7B6D4}" name="feminine" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{38D3B85E-F932-144D-AFBF-FC939E604CFD}" name="neuter" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AFD3AC11-A538-6744-8E10-D594EF692BAD}" name="plural" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{403C6792-EACF-E941-8C55-67A4863AA088}" name="english" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{94326E2B-E153-0742-B361-3C934BAE8480}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{A2BFE6F5-86EA-6D4C-81D1-179B7E4AC3EF}" name="masculine" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{92F1D817-9606-3F4E-A3C7-35929FC6370F}" name="feminine" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{7AA0DAFB-4ABF-D248-B6B8-4D8D74FDCF13}" name="neuter" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{D95C0662-FA25-AD40-BF1E-AA0EE1541B48}" name="plural" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{33A4C611-BA25-1A4D-BC7D-E75BE0D57286}" name="english" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D604B0AF-00FE-EF4F-9389-A795278EED57}" name="Table1" displayName="Table1" ref="A2:J12" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D604B0AF-00FE-EF4F-9389-A795278EED57}" name="Table1" displayName="Table1" ref="A2:J12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A2:J12" xr:uid="{FF0AB912-9252-464E-B9C3-B29834B0ECCC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E02B47F1-433B-4D43-A024-9ECA46E58599}" name="Case"/>
-    <tableColumn id="2" xr3:uid="{CBC47D62-3D71-4745-89BA-77B9C2448E38}" name="Gender" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{22251C27-AEBE-4D40-9628-769A25CFF1BB}" name="ich" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{93A00F01-2B22-0540-A95D-556B8E80A03A}" name="du" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1E3131B1-9E38-E247-BAB1-2A9B2159AEFF}" name="er" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{BC189044-A5E1-1D44-B72C-5E5FCEC2B5E5}" name="sie" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{8D94C261-7389-6E4D-8333-34BEED8FE5CB}" name="es" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{C92F319E-88EB-D449-85EE-75171445CB1E}" name="wir" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{93A11A56-4C2A-444A-9245-3C891A44EE5B}" name="ihr" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{55E25602-5B14-C145-93DF-2C85CD1C5218}" name="sie/Sie" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CBC47D62-3D71-4745-89BA-77B9C2448E38}" name="Gender" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{22251C27-AEBE-4D40-9628-769A25CFF1BB}" name="ich" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{93A00F01-2B22-0540-A95D-556B8E80A03A}" name="du" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{1E3131B1-9E38-E247-BAB1-2A9B2159AEFF}" name="er" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{BC189044-A5E1-1D44-B72C-5E5FCEC2B5E5}" name="sie" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{8D94C261-7389-6E4D-8333-34BEED8FE5CB}" name="es" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{C92F319E-88EB-D449-85EE-75171445CB1E}" name="wir" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{93A11A56-4C2A-444A-9245-3C891A44EE5B}" name="ihr" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{55E25602-5B14-C145-93DF-2C85CD1C5218}" name="sie/Sie" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D087FF0F-1643-F24E-A789-7580D96C05CF}" name="Table13" displayName="Table13" ref="A1:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:F5" xr:uid="{9CF86E26-514D-144E-8499-3DB952E8B680}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1752C320-C7A2-AB4C-A765-949547BABC68}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{67F0F550-6CF5-EC43-8400-7CE8BE866B04}" name="masculine" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BDCA64BC-0620-AE45-88C1-14FC90D7B6D4}" name="feminine" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{38D3B85E-F932-144D-AFBF-FC939E604CFD}" name="neuter" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AFD3AC11-A538-6744-8E10-D594EF692BAD}" name="plural" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{403C6792-EACF-E941-8C55-67A4863AA088}" name="english" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7C5FA5D7-8722-3A47-9740-8F39A398C7E1}" name="Table15" displayName="Table15" ref="A1:J11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:J11" xr:uid="{03F72590-B761-5B4B-8EF7-7D4FD54890C2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{16549933-33B0-D84E-8A49-781F49502E6F}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{E0AC4835-BD7A-3947-BFF8-D96A8A052D04}" name="Gender" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E303B1AC-5EFA-6641-B305-9284E3A7C149}" name="ich" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B08E15B4-EBAF-864F-9E53-A56E2A8781CC}" name="du" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3827644A-E7A7-3B46-8D4F-2BB6F5BFF2DF}" name="er" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F48B6E95-1910-8F40-A7AE-88FB853627B1}" name="sie" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{319EA440-19D1-B542-9BA9-65649EE85A17}" name="es" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{266A0AC7-2805-764C-925A-4F69381AB5F0}" name="wir" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{FB94C7F0-9029-814A-B185-9A549B8A725D}" name="ihr" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4FE01038-7942-0841-9EC9-BD3F727DC707}" name="sie/Sie" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1325,11 +1925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7F335-7C9C-AD49-A584-C8B746C4F96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AC7F84-05E6-2940-8F15-8CD0AB7F1769}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1339,27 +1939,26 @@
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1367,19 +1966,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1387,60 +1986,48 @@
         <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A18:C19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1486,21 +2073,21 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>23</v>
@@ -1524,7 +2111,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -1564,7 +2151,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>33</v>
@@ -1596,33 +2183,33 @@
         <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -1654,7 +2241,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -1680,124 +2267,124 @@
     </row>
     <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -1805,28 +2392,148 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1838,11 +2545,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903BD9A5-396E-C44D-B1A7-BF8519CD3A90}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7F335-7C9C-AD49-A584-C8B746C4F96E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1853,7 +2740,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1861,7 +2748,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -1869,55 +2756,55 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1925,7 +2812,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1957,31 +2844,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1989,45 +2876,45 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2041,44 +2928,44 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2092,4 +2979,377 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48475283-9E32-4C43-BE7C-F36F17E815ED}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/resources/05 Pronouns.xlsx
+++ b/resources/05 Pronouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32CE95-E427-FA4D-AA1D-317AE07B23AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A39D9B-B1FC-2A48-81E2-E7FBF01848BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="28360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="1520" windowWidth="16800" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="169">
   <si>
     <t>Pronoun</t>
   </si>
@@ -646,7 +646,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">meine </t>
+      <t xml:space="preserve">mein </t>
     </r>
     <r>
       <rPr>
@@ -656,6 +656,169 @@
         <family val="2"/>
       </rPr>
       <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meine Mutter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, spielt mit meinem Bruder</t>
+    </r>
+  </si>
+  <si>
+    <t>meinem</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meinem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meine Mutter, spielt mit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meinem Bruder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mein </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wer hat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mein Auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gesehen?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3,6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meine Eltern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spielen mit meiner Katze</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">meiner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202020"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meine Eltern spielen mit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>meiner Katze</t>
     </r>
   </si>
 </sst>
@@ -2041,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2985,14 +3148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48475283-9E32-4C43-BE7C-F36F17E815ED}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -3052,7 +3216,9 @@
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3081,7 +3247,9 @@
       <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3112,7 +3280,9 @@
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3125,7 +3295,9 @@
       <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3176,62 +3348,168 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
       <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3243,7 +3521,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3254,7 +3532,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3266,7 +3544,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3277,7 +3555,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -3288,7 +3566,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3300,7 +3578,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -3311,7 +3589,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3322,7 +3600,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3334,7 +3612,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="2:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>

--- a/resources/05 Pronouns.xlsx
+++ b/resources/05 Pronouns.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/projects/education/languages/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A39D9B-B1FC-2A48-81E2-E7FBF01848BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05010AC-8EDF-1343-8263-09EE6DBB8B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="1520" windowWidth="16800" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="indefinite-articles" sheetId="5" r:id="rId2"/>
-    <sheet name="possessive" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="definite-articles" sheetId="4" r:id="rId5"/>
+    <sheet name="definite-articles" sheetId="4" r:id="rId3"/>
+    <sheet name="possessive" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="fuck" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -1589,6 +1589,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D087FF0F-1643-F24E-A789-7580D96C05CF}" name="Table13" displayName="Table13" ref="A1:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:F5" xr:uid="{9CF86E26-514D-144E-8499-3DB952E8B680}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1752C320-C7A2-AB4C-A765-949547BABC68}" name="Case"/>
+    <tableColumn id="2" xr3:uid="{67F0F550-6CF5-EC43-8400-7CE8BE866B04}" name="masculine" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BDCA64BC-0620-AE45-88C1-14FC90D7B6D4}" name="feminine" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{38D3B85E-F932-144D-AFBF-FC939E604CFD}" name="neuter" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AFD3AC11-A538-6744-8E10-D594EF692BAD}" name="plural" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{403C6792-EACF-E941-8C55-67A4863AA088}" name="english" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D604B0AF-00FE-EF4F-9389-A795278EED57}" name="Table1" displayName="Table1" ref="A2:J12" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A2:J12" xr:uid="{FF0AB912-9252-464E-B9C3-B29834B0ECCC}"/>
   <tableColumns count="10">
@@ -1602,21 +1617,6 @@
     <tableColumn id="8" xr3:uid="{C92F319E-88EB-D449-85EE-75171445CB1E}" name="wir" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{93A11A56-4C2A-444A-9245-3C891A44EE5B}" name="ihr" dataDxfId="19"/>
     <tableColumn id="10" xr3:uid="{55E25602-5B14-C145-93DF-2C85CD1C5218}" name="sie/Sie" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D087FF0F-1643-F24E-A789-7580D96C05CF}" name="Table13" displayName="Table13" ref="A1:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:F5" xr:uid="{9CF86E26-514D-144E-8499-3DB952E8B680}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1752C320-C7A2-AB4C-A765-949547BABC68}" name="Case"/>
-    <tableColumn id="2" xr3:uid="{67F0F550-6CF5-EC43-8400-7CE8BE866B04}" name="masculine" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BDCA64BC-0620-AE45-88C1-14FC90D7B6D4}" name="feminine" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{38D3B85E-F932-144D-AFBF-FC939E604CFD}" name="neuter" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{AFD3AC11-A538-6744-8E10-D594EF692BAD}" name="plural" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{403C6792-EACF-E941-8C55-67A4863AA088}" name="english" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2201,10 +2201,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7F335-7C9C-AD49-A584-C8B746C4F96E}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903BD9A5-396E-C44D-B1A7-BF8519CD3A90}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2758,132 +2884,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D7F335-7C9C-AD49-A584-C8B746C4F96E}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
